--- a/results/I3_N5_M2_T15_C100_DepCentral_s4_P2_res.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s4_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1853.131386707104</v>
+        <v>1098.690461343004</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006000041961669922</v>
+        <v>0.001000165939331055</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.42188413403032</v>
+        <v>22.73074255039767</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.380784773767238</v>
+        <v>4.673477693221724</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.350287346831242</v>
+        <v>4.633196485827958</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1526.700000000009</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>306.04</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>7.385362071892702</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.235166958185172</v>
+        <v>8.384048268047589</v>
       </c>
     </row>
     <row r="5">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.619215226232761</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.145609779219562</v>
+        <v>9.854390220780438</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1029,13 +1029,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1043,13 +1043,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1074,68 +1074,12 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8399999999998</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1193,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>163.6949999999998</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1204,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>161.6799999999998</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1215,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>160.4149999999998</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1226,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>151.6049999999998</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>184.05</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>190.0900000000015</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>197.7250000000014</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1270,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>200.3650000000015</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>189.8850000000014</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>48.07000000000072</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>46.66000000000072</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1314,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>49.43500000000073</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1325,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>46.91500000000073</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1336,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>42.86500000000069</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>107.5400000000008</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>114.1650000000008</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1369,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>108.45</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1380,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>113.8</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1391,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>111.3550000000008</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.89499999999971</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1413,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81999999999971</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1424,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17499999999971</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1435,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.6849999999997</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1446,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>163.8399999999998</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1468,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>163.6949999999998</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1479,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>161.6799999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1490,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>160.4149999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>151.6049999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>184.05</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1523,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>190.0900000000015</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1534,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>197.7250000000014</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1545,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>200.3650000000015</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1556,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>189.8850000000014</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>63.8399999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>63.69499999999977</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1625,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>61.67999999999978</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1636,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>60.41499999999979</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1647,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>51.60499999999979</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>84.05</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1669,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>90.09000000000145</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1680,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>97.72500000000144</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1691,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>100.3650000000015</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1702,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>89.88500000000141</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1816,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.635</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1827,7 +1771,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1838,7 +1782,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.775</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1849,7 +1793,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1860,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.045</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1826,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +1837,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +1848,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.925000000000001</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1926,7 +1870,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1937,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>7.57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1948,7 +1892,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.945</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1959,7 +1903,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>13.115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -1970,7 +1914,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1981,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1992,7 +1936,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2003,7 +1947,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +1958,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2025,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +1980,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +1991,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +2002,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +2013,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +2027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2110,7 +2054,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2121,10 +2065,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2132,10 +2076,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2143,10 +2087,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2154,10 +2098,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2165,10 +2109,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2176,7 +2120,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2187,7 +2131,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2198,7 +2142,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2209,67 +2153,12 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
